--- a/data/HR1/Market Data/HR1_market_data_2024.xlsx
+++ b/data/HR1/Market Data/HR1_market_data_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE0E2BC-8618-4AFF-ADC8-FA769C084CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC845B4-201F-43C1-AEEC-34B98DA16782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -195,16 +195,16 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -230,13 +230,7 @@
       <sheetName val="Tertiary Reserve Down, Summer"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="B2">
-            <v>0.02</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="B2">
@@ -2747,8 +2741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2761,11 +2755,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
@@ -6402,7 +6395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D41C535-3839-4DDB-BB1F-A20EDF01545A}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>

--- a/data/HR1/Market Data/HR1_market_data_2024.xlsx
+++ b/data/HR1/Market Data/HR1_market_data_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC845B4-201F-43C1-AEEC-34B98DA16782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A274A58-978C-4FB3-BCA7-23C2D4AC989B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,10 +2755,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/HR1/Market Data/HR1_market_data_2024.xlsx
+++ b/data/HR1/Market Data/HR1_market_data_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A274A58-978C-4FB3-BCA7-23C2D4AC989B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1495E0EF-0007-414E-A103-D339AE70F854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,11 +2755,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/HR1/Market Data/HR1_market_data_2024.xlsx
+++ b/data/HR1/Market Data/HR1_market_data_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1495E0EF-0007-414E-A103-D339AE70F854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35F0C0F-9013-47FB-A202-E6185FA88489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,10 +2755,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/HR1/Market Data/HR1_market_data_2024.xlsx
+++ b/data/HR1/Market Data/HR1_market_data_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35F0C0F-9013-47FB-A202-E6185FA88489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309B4172-4A7E-4404-995B-BD7C2D29FF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,11 +2755,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/HR1/Market Data/HR1_market_data_2024.xlsx
+++ b/data/HR1/Market Data/HR1_market_data_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309B4172-4A7E-4404-995B-BD7C2D29FF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34236803-AF41-4547-999F-DED6AD1B3A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,10 +2755,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/HR1/Market Data/HR1_market_data_2024.xlsx
+++ b/data/HR1/Market Data/HR1_market_data_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34236803-AF41-4547-999F-DED6AD1B3A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79041D69-33EE-4737-A7B3-B46ACD508D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,11 +2755,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/HR1/Market Data/HR1_market_data_2024.xlsx
+++ b/data/HR1/Market Data/HR1_market_data_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79041D69-33EE-4737-A7B3-B46ACD508D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C905FB5-E309-4275-9E2B-09190162EF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,10 +2755,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/HR1/Market Data/HR1_market_data_2024.xlsx
+++ b/data/HR1/Market Data/HR1_market_data_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C905FB5-E309-4275-9E2B-09190162EF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77352E63-F720-4904-B503-0E3E7850ABB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,11 +2755,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/HR1/Market Data/HR1_market_data_2024.xlsx
+++ b/data/HR1/Market Data/HR1_market_data_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77352E63-F720-4904-B503-0E3E7850ABB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FC7013-0BBF-437D-8636-031EA1D64181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,10 +2755,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/HR1/Market Data/HR1_market_data_2024.xlsx
+++ b/data/HR1/Market Data/HR1_market_data_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FC7013-0BBF-437D-8636-031EA1D64181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40DAD43-DF9F-4DE7-9BE8-A07D11758ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,11 +2755,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/HR1/Market Data/HR1_market_data_2024.xlsx
+++ b/data/HR1/Market Data/HR1_market_data_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40DAD43-DF9F-4DE7-9BE8-A07D11758ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B4095C-9906-425E-9441-91FAAD929026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,10 +2755,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/HR1/Market Data/HR1_market_data_2024.xlsx
+++ b/data/HR1/Market Data/HR1_market_data_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FC7013-0BBF-437D-8636-031EA1D64181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327FA1EB-E062-4F22-A0FB-37FE14A25954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,11 +2755,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/HR1/Market Data/HR1_market_data_2024.xlsx
+++ b/data/HR1/Market Data/HR1_market_data_2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327FA1EB-E062-4F22-A0FB-37FE14A25954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BE8F1A-16B3-4518-AB65-B754A8EE43E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,10 +2755,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/HR1/Market Data/HR1_market_data_2024.xlsx
+++ b/data/HR1/Market Data/HR1_market_data_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\Market Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/micaelsimoes/Projects/share-resource-planning-no_esso-degradation/data/HR1/Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BE8F1A-16B3-4518-AB65-B754A8EE43E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F69E7C-6281-684D-8993-87070AC66D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1000" yWindow="500" windowWidth="37400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2742,24 +2742,23 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
@@ -2773,7 +2772,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2781,7 +2780,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2789,7 +2788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2798,7 +2797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2807,7 +2806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2816,7 +2815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2825,7 +2824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2848,9 +2847,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2927,7 +2926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3028,7 +3027,7 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3129,7 +3128,7 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3230,7 +3229,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -3256,7 +3255,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3295,9 +3294,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3374,7 +3373,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3475,7 +3474,7 @@
         <v>27.98</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3576,7 +3575,7 @@
         <v>27.532499999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3677,7 +3676,7 @@
         <v>27.085000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -3703,7 +3702,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3742,9 +3741,9 @@
       <selection activeCell="E2" sqref="A1:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3821,7 +3820,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3922,7 +3921,7 @@
         <v>42.69</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4023,7 +4022,7 @@
         <v>41.71</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4124,7 +4123,7 @@
         <v>43.67</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -4150,7 +4149,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -4190,9 +4189,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4269,7 +4268,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4370,7 +4369,7 @@
         <v>51.227999999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4471,7 +4470,7 @@
         <v>50.052</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4585,9 +4584,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4664,7 +4663,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4765,7 +4764,7 @@
         <v>14.23521</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4866,7 +4865,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4967,7 +4966,7 @@
         <v>18.257999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -4993,7 +4992,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -5019,7 +5018,7 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -5058,9 +5057,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5137,7 +5136,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5238,7 +5237,7 @@
         <v>47.88</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5339,7 +5338,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5440,7 +5439,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -5466,7 +5465,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -5505,9 +5504,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5584,7 +5583,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5685,7 +5684,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5786,7 +5785,7 @@
         <v>30.75</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5887,7 +5886,7 @@
         <v>31.75</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -5913,7 +5912,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -5952,9 +5951,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -6031,7 +6030,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6132,7 +6131,7 @@
         <v>38.14</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6233,7 +6232,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6334,7 +6333,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -6360,7 +6359,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -6400,9 +6399,9 @@
       <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -6479,7 +6478,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6580,7 +6579,7 @@
         <v>45.768000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6681,7 +6680,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6795,9 +6794,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -6874,7 +6873,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6975,7 +6974,7 @@
         <v>6.9015499999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7076,7 +7075,7 @@
         <v>6.83</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7177,7 +7176,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -7203,7 +7202,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -7229,7 +7228,7 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>

--- a/data/HR1/Market Data/HR1_market_data_2024.xlsx
+++ b/data/HR1/Market Data/HR1_market_data_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/micaelsimoes/Projects/share-resource-planning-no_esso-degradation/data/HR1/Market Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F69E7C-6281-684D-8993-87070AC66D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81834927-8906-42CF-8BE8-35042101E2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="500" windowWidth="37400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -464,7 +464,7 @@
             <v>48.941999999999993</v>
           </cell>
           <cell r="D2">
-            <v>46.862999999999992</v>
+            <v>46.863</v>
           </cell>
           <cell r="E2">
             <v>43.947000000000003</v>
@@ -476,7 +476,7 @@
             <v>48.894000000000005</v>
           </cell>
           <cell r="H2">
-            <v>59.153999999999996</v>
+            <v>59.153999999999989</v>
           </cell>
           <cell r="I2">
             <v>61.908000000000001</v>
@@ -488,7 +488,7 @@
             <v>64.60499999999999</v>
           </cell>
           <cell r="L2">
-            <v>63.36</v>
+            <v>63.360000000000014</v>
           </cell>
           <cell r="M2">
             <v>63.050999999999995</v>
@@ -497,7 +497,7 @@
             <v>60.608999999999988</v>
           </cell>
           <cell r="O2">
-            <v>59.753999999999998</v>
+            <v>59.753999999999991</v>
           </cell>
           <cell r="P2">
             <v>58.581000000000003</v>
@@ -506,7 +506,7 @@
             <v>58.697999999999993</v>
           </cell>
           <cell r="R2">
-            <v>59.603999999999999</v>
+            <v>59.603999999999992</v>
           </cell>
           <cell r="S2">
             <v>62.55</v>
@@ -518,13 +518,13 @@
             <v>66.048000000000002</v>
           </cell>
           <cell r="V2">
-            <v>64.523999999999987</v>
+            <v>64.524000000000001</v>
           </cell>
           <cell r="W2">
-            <v>60.470999999999997</v>
+            <v>60.471000000000004</v>
           </cell>
           <cell r="X2">
-            <v>54.579000000000001</v>
+            <v>54.578999999999994</v>
           </cell>
           <cell r="Y2">
             <v>51.227999999999994</v>
@@ -532,150 +532,150 @@
         </row>
         <row r="3">
           <cell r="B3">
-            <v>48.984000000000002</v>
+            <v>52.451999999999998</v>
           </cell>
           <cell r="C3">
-            <v>46.235999999999997</v>
+            <v>48.941999999999993</v>
           </cell>
           <cell r="D3">
-            <v>43.241999999999997</v>
+            <v>46.863</v>
           </cell>
           <cell r="E3">
-            <v>41.309999999999995</v>
+            <v>43.947000000000003</v>
           </cell>
           <cell r="F3">
-            <v>43.608000000000004</v>
+            <v>45.258000000000003</v>
           </cell>
           <cell r="G3">
-            <v>45.936</v>
+            <v>48.894000000000005</v>
           </cell>
           <cell r="H3">
-            <v>53.04</v>
+            <v>59.153999999999989</v>
           </cell>
           <cell r="I3">
-            <v>55.404000000000003</v>
+            <v>61.908000000000001</v>
           </cell>
           <cell r="J3">
-            <v>58.176000000000002</v>
+            <v>65.099999999999994</v>
           </cell>
           <cell r="K3">
-            <v>58.565999999999995</v>
+            <v>64.60499999999999</v>
           </cell>
           <cell r="L3">
-            <v>56.88</v>
+            <v>63.360000000000014</v>
           </cell>
           <cell r="M3">
-            <v>55.709999999999994</v>
+            <v>63.050999999999995</v>
           </cell>
           <cell r="N3">
-            <v>54.005999999999993</v>
+            <v>60.608999999999988</v>
           </cell>
           <cell r="O3">
-            <v>53.436</v>
+            <v>59.753999999999991</v>
           </cell>
           <cell r="P3">
-            <v>51.054000000000002</v>
+            <v>58.581000000000003</v>
           </cell>
           <cell r="Q3">
-            <v>50.652000000000001</v>
+            <v>58.697999999999993</v>
           </cell>
           <cell r="R3">
-            <v>51.695999999999998</v>
+            <v>59.603999999999992</v>
           </cell>
           <cell r="S3">
-            <v>57</v>
+            <v>62.55</v>
           </cell>
           <cell r="T3">
-            <v>59.676000000000002</v>
+            <v>65.543999999999997</v>
           </cell>
           <cell r="U3">
-            <v>60.612000000000002</v>
+            <v>66.048000000000002</v>
           </cell>
           <cell r="V3">
-            <v>60.947999999999993</v>
+            <v>64.524000000000001</v>
           </cell>
           <cell r="W3">
-            <v>58.24199999999999</v>
+            <v>60.471000000000004</v>
           </cell>
           <cell r="X3">
-            <v>52.745999999999995</v>
+            <v>54.578999999999994</v>
           </cell>
           <cell r="Y3">
-            <v>50.052</v>
+            <v>51.227999999999994</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>55.92</v>
+            <v>52.451999999999998</v>
           </cell>
           <cell r="C4">
-            <v>51.647999999999996</v>
+            <v>48.941999999999993</v>
           </cell>
           <cell r="D4">
-            <v>50.484000000000002</v>
+            <v>46.863</v>
           </cell>
           <cell r="E4">
-            <v>46.583999999999996</v>
+            <v>43.947000000000003</v>
           </cell>
           <cell r="F4">
-            <v>46.908000000000001</v>
+            <v>45.258000000000003</v>
           </cell>
           <cell r="G4">
-            <v>51.851999999999997</v>
+            <v>48.894000000000005</v>
           </cell>
           <cell r="H4">
-            <v>65.268000000000001</v>
+            <v>59.153999999999989</v>
           </cell>
           <cell r="I4">
-            <v>68.411999999999992</v>
+            <v>61.908000000000001</v>
           </cell>
           <cell r="J4">
-            <v>72.024000000000001</v>
+            <v>65.099999999999994</v>
           </cell>
           <cell r="K4">
-            <v>70.643999999999991</v>
+            <v>64.60499999999999</v>
           </cell>
           <cell r="L4">
-            <v>69.84</v>
+            <v>63.360000000000014</v>
           </cell>
           <cell r="M4">
-            <v>70.391999999999996</v>
+            <v>63.050999999999995</v>
           </cell>
           <cell r="N4">
-            <v>67.211999999999989</v>
+            <v>60.608999999999988</v>
           </cell>
           <cell r="O4">
-            <v>66.072000000000003</v>
+            <v>59.753999999999991</v>
           </cell>
           <cell r="P4">
-            <v>66.108000000000004</v>
+            <v>58.581000000000003</v>
           </cell>
           <cell r="Q4">
-            <v>66.744</v>
+            <v>58.697999999999993</v>
           </cell>
           <cell r="R4">
-            <v>67.512</v>
+            <v>59.603999999999992</v>
           </cell>
           <cell r="S4">
-            <v>68.099999999999994</v>
+            <v>62.55</v>
           </cell>
           <cell r="T4">
-            <v>71.411999999999992</v>
+            <v>65.543999999999997</v>
           </cell>
           <cell r="U4">
-            <v>71.483999999999995</v>
+            <v>66.048000000000002</v>
           </cell>
           <cell r="V4">
-            <v>68.099999999999994</v>
+            <v>64.524000000000001</v>
           </cell>
           <cell r="W4">
-            <v>62.699999999999996</v>
+            <v>60.471000000000004</v>
           </cell>
           <cell r="X4">
-            <v>56.411999999999999</v>
+            <v>54.578999999999994</v>
           </cell>
           <cell r="Y4">
-            <v>52.404000000000003</v>
+            <v>51.227999999999994</v>
           </cell>
         </row>
       </sheetData>
@@ -1578,224 +1578,224 @@
       <sheetData sheetId="7">
         <row r="2">
           <cell r="B2">
-            <v>44.724000000000004</v>
+            <v>44.136000000000003</v>
           </cell>
           <cell r="C2">
-            <v>40.811999999999998</v>
+            <v>39.931999999999995</v>
           </cell>
           <cell r="D2">
-            <v>39.083999999999996</v>
+            <v>39.864000000000004</v>
           </cell>
           <cell r="E2">
-            <v>38.375999999999998</v>
+            <v>38.923999999999999</v>
           </cell>
           <cell r="F2">
-            <v>38.556000000000004</v>
+            <v>39.660000000000004</v>
           </cell>
           <cell r="G2">
-            <v>43.643999999999998</v>
+            <v>43.583999999999996</v>
           </cell>
           <cell r="H2">
-            <v>45.491999999999997</v>
+            <v>48.144000000000005</v>
           </cell>
           <cell r="I2">
-            <v>45.491999999999997</v>
+            <v>48.403999999999996</v>
           </cell>
           <cell r="J2">
-            <v>47.808</v>
+            <v>51.024000000000001</v>
           </cell>
           <cell r="K2">
-            <v>47.927999999999997</v>
+            <v>50.907999999999994</v>
           </cell>
           <cell r="L2">
-            <v>47.808</v>
+            <v>49.74</v>
           </cell>
           <cell r="M2">
-            <v>48.011999999999993</v>
+            <v>49.672000000000004</v>
           </cell>
           <cell r="N2">
-            <v>47.327999999999996</v>
+            <v>51.436</v>
           </cell>
           <cell r="O2">
-            <v>47.027999999999999</v>
+            <v>52.203999999999994</v>
           </cell>
           <cell r="P2">
-            <v>46.043999999999997</v>
+            <v>51.05599999999999</v>
           </cell>
           <cell r="Q2">
-            <v>44.627999999999993</v>
+            <v>49.819999999999986</v>
           </cell>
           <cell r="R2">
-            <v>41.975999999999992</v>
+            <v>48.875999999999998</v>
           </cell>
           <cell r="S2">
-            <v>44.843999999999994</v>
+            <v>50.391999999999996</v>
           </cell>
           <cell r="T2">
-            <v>46.559999999999995</v>
+            <v>51.579999999999991</v>
           </cell>
           <cell r="U2">
-            <v>47.879999999999995</v>
+            <v>53.071999999999996</v>
           </cell>
           <cell r="V2">
-            <v>46.847999999999999</v>
+            <v>54.268000000000001</v>
           </cell>
           <cell r="W2">
-            <v>47.808</v>
+            <v>56.671999999999997</v>
           </cell>
           <cell r="X2">
-            <v>47.711999999999996</v>
+            <v>54.199999999999996</v>
           </cell>
           <cell r="Y2">
-            <v>45.768000000000001</v>
+            <v>50.256</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>47.616</v>
+            <v>44.136000000000003</v>
           </cell>
           <cell r="C3">
-            <v>42</v>
+            <v>39.931999999999995</v>
           </cell>
           <cell r="D3">
-            <v>45.84</v>
+            <v>39.864000000000004</v>
           </cell>
           <cell r="E3">
-            <v>44.279999999999994</v>
+            <v>38.923999999999999</v>
           </cell>
           <cell r="F3">
-            <v>45.131999999999998</v>
+            <v>39.660000000000004</v>
           </cell>
           <cell r="G3">
-            <v>45.84</v>
+            <v>43.583999999999996</v>
           </cell>
           <cell r="H3">
-            <v>44.652000000000001</v>
+            <v>48.144000000000005</v>
           </cell>
           <cell r="I3">
-            <v>48.216000000000001</v>
+            <v>48.403999999999996</v>
           </cell>
           <cell r="J3">
-            <v>51.408000000000001</v>
+            <v>51.024000000000001</v>
           </cell>
           <cell r="K3">
-            <v>51.636000000000003</v>
+            <v>50.907999999999994</v>
           </cell>
           <cell r="L3">
-            <v>52.14</v>
+            <v>49.74</v>
           </cell>
           <cell r="M3">
-            <v>53.124000000000002</v>
+            <v>49.672000000000004</v>
           </cell>
           <cell r="N3">
-            <v>53.963999999999999</v>
+            <v>51.436</v>
           </cell>
           <cell r="O3">
-            <v>55.368000000000002</v>
+            <v>52.203999999999994</v>
           </cell>
           <cell r="P3">
-            <v>53.268000000000001</v>
+            <v>51.05599999999999</v>
           </cell>
           <cell r="Q3">
-            <v>51.611999999999995</v>
+            <v>49.819999999999986</v>
           </cell>
           <cell r="R3">
-            <v>51.431999999999995</v>
+            <v>48.875999999999998</v>
           </cell>
           <cell r="S3">
-            <v>52.475999999999992</v>
+            <v>50.391999999999996</v>
           </cell>
           <cell r="T3">
-            <v>52.763999999999996</v>
+            <v>51.579999999999991</v>
           </cell>
           <cell r="U3">
-            <v>53.879999999999995</v>
+            <v>53.071999999999996</v>
           </cell>
           <cell r="V3">
-            <v>54.54</v>
+            <v>54.268000000000001</v>
           </cell>
           <cell r="W3">
-            <v>55.379999999999995</v>
+            <v>56.671999999999997</v>
           </cell>
           <cell r="X3">
-            <v>53.963999999999999</v>
+            <v>54.199999999999996</v>
           </cell>
           <cell r="Y3">
-            <v>51</v>
+            <v>50.256</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>40.067999999999998</v>
+            <v>44.136000000000003</v>
           </cell>
           <cell r="C4">
-            <v>36.984000000000002</v>
+            <v>39.931999999999995</v>
           </cell>
           <cell r="D4">
-            <v>34.667999999999999</v>
+            <v>39.864000000000004</v>
           </cell>
           <cell r="E4">
-            <v>34.116</v>
+            <v>38.923999999999999</v>
           </cell>
           <cell r="F4">
-            <v>35.292000000000002</v>
+            <v>39.660000000000004</v>
           </cell>
           <cell r="G4">
-            <v>41.268000000000001</v>
+            <v>43.583999999999996</v>
           </cell>
           <cell r="H4">
-            <v>54.288000000000004</v>
+            <v>48.144000000000005</v>
           </cell>
           <cell r="I4">
-            <v>51.503999999999998</v>
+            <v>48.403999999999996</v>
           </cell>
           <cell r="J4">
-            <v>53.856000000000002</v>
+            <v>51.024000000000001</v>
           </cell>
           <cell r="K4">
-            <v>53.16</v>
+            <v>50.907999999999994</v>
           </cell>
           <cell r="L4">
-            <v>49.271999999999998</v>
+            <v>49.74</v>
           </cell>
           <cell r="M4">
-            <v>47.879999999999995</v>
+            <v>49.672000000000004</v>
           </cell>
           <cell r="N4">
-            <v>53.015999999999998</v>
+            <v>51.436</v>
           </cell>
           <cell r="O4">
-            <v>54.216000000000001</v>
+            <v>52.203999999999994</v>
           </cell>
           <cell r="P4">
-            <v>53.856000000000002</v>
+            <v>51.05599999999999</v>
           </cell>
           <cell r="Q4">
-            <v>53.22</v>
+            <v>49.819999999999986</v>
           </cell>
           <cell r="R4">
-            <v>53.22</v>
+            <v>48.875999999999998</v>
           </cell>
           <cell r="S4">
-            <v>53.856000000000002</v>
+            <v>50.391999999999996</v>
           </cell>
           <cell r="T4">
-            <v>55.415999999999997</v>
+            <v>51.579999999999991</v>
           </cell>
           <cell r="U4">
-            <v>57.456000000000003</v>
+            <v>53.071999999999996</v>
           </cell>
           <cell r="V4">
-            <v>61.415999999999997</v>
+            <v>54.268000000000001</v>
           </cell>
           <cell r="W4">
-            <v>66.827999999999989</v>
+            <v>56.671999999999997</v>
           </cell>
           <cell r="X4">
-            <v>60.923999999999999</v>
+            <v>54.199999999999996</v>
           </cell>
           <cell r="Y4">
-            <v>54</v>
+            <v>50.256</v>
           </cell>
         </row>
       </sheetData>
@@ -2741,16 +2741,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2772,7 +2772,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2847,9 +2847,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -3255,7 +3255,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3294,9 +3294,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>27.98</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>27.532499999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>27.085000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -3702,7 +3702,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3741,9 +3741,9 @@
       <selection activeCell="E2" sqref="A1:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>42.69</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>41.71</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>43.67</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -4149,7 +4149,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -4189,9 +4189,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4282,7 +4282,7 @@
       </c>
       <c r="D2" s="2">
         <f>'[2]Flexibility, Winter'!D2*Scenarios!$B$7</f>
-        <v>46.862999999999992</v>
+        <v>46.863</v>
       </c>
       <c r="E2" s="2">
         <f>'[2]Flexibility, Winter'!E2*Scenarios!$B$7</f>
@@ -4298,7 +4298,7 @@
       </c>
       <c r="H2" s="2">
         <f>'[2]Flexibility, Winter'!H2*Scenarios!$B$7</f>
-        <v>59.153999999999996</v>
+        <v>59.153999999999989</v>
       </c>
       <c r="I2" s="2">
         <f>'[2]Flexibility, Winter'!I2*Scenarios!$B$7</f>
@@ -4314,7 +4314,7 @@
       </c>
       <c r="L2" s="2">
         <f>'[2]Flexibility, Winter'!L2*Scenarios!$B$7</f>
-        <v>63.36</v>
+        <v>63.360000000000014</v>
       </c>
       <c r="M2" s="2">
         <f>'[2]Flexibility, Winter'!M2*Scenarios!$B$7</f>
@@ -4326,7 +4326,7 @@
       </c>
       <c r="O2" s="2">
         <f>'[2]Flexibility, Winter'!O2*Scenarios!$B$7</f>
-        <v>59.753999999999998</v>
+        <v>59.753999999999991</v>
       </c>
       <c r="P2" s="2">
         <f>'[2]Flexibility, Winter'!P2*Scenarios!$B$7</f>
@@ -4338,7 +4338,7 @@
       </c>
       <c r="R2" s="2">
         <f>'[2]Flexibility, Winter'!R2*Scenarios!$B$7</f>
-        <v>59.603999999999999</v>
+        <v>59.603999999999992</v>
       </c>
       <c r="S2" s="2">
         <f>'[2]Flexibility, Winter'!S2*Scenarios!$B$7</f>
@@ -4354,221 +4354,221 @@
       </c>
       <c r="V2" s="2">
         <f>'[2]Flexibility, Winter'!V2*Scenarios!$B$7</f>
-        <v>64.523999999999987</v>
+        <v>64.524000000000001</v>
       </c>
       <c r="W2" s="2">
         <f>'[2]Flexibility, Winter'!W2*Scenarios!$B$7</f>
-        <v>60.470999999999997</v>
+        <v>60.471000000000004</v>
       </c>
       <c r="X2" s="2">
         <f>'[2]Flexibility, Winter'!X2*Scenarios!$B$7</f>
-        <v>54.579000000000001</v>
+        <v>54.578999999999994</v>
       </c>
       <c r="Y2" s="2">
         <f>'[2]Flexibility, Winter'!Y2*Scenarios!$B$7</f>
         <v>51.227999999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[2]Flexibility, Winter'!B3*Scenarios!$B$7</f>
-        <v>48.984000000000002</v>
+        <v>52.451999999999998</v>
       </c>
       <c r="C3" s="2">
         <f>'[2]Flexibility, Winter'!C3*Scenarios!$B$7</f>
-        <v>46.235999999999997</v>
+        <v>48.941999999999993</v>
       </c>
       <c r="D3" s="2">
         <f>'[2]Flexibility, Winter'!D3*Scenarios!$B$7</f>
-        <v>43.241999999999997</v>
+        <v>46.863</v>
       </c>
       <c r="E3" s="2">
         <f>'[2]Flexibility, Winter'!E3*Scenarios!$B$7</f>
-        <v>41.309999999999995</v>
+        <v>43.947000000000003</v>
       </c>
       <c r="F3" s="2">
         <f>'[2]Flexibility, Winter'!F3*Scenarios!$B$7</f>
-        <v>43.608000000000004</v>
+        <v>45.258000000000003</v>
       </c>
       <c r="G3" s="2">
         <f>'[2]Flexibility, Winter'!G3*Scenarios!$B$7</f>
-        <v>45.936</v>
+        <v>48.894000000000005</v>
       </c>
       <c r="H3" s="2">
         <f>'[2]Flexibility, Winter'!H3*Scenarios!$B$7</f>
-        <v>53.04</v>
+        <v>59.153999999999989</v>
       </c>
       <c r="I3" s="2">
         <f>'[2]Flexibility, Winter'!I3*Scenarios!$B$7</f>
-        <v>55.404000000000003</v>
+        <v>61.908000000000001</v>
       </c>
       <c r="J3" s="2">
         <f>'[2]Flexibility, Winter'!J3*Scenarios!$B$7</f>
-        <v>58.176000000000002</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="K3" s="2">
         <f>'[2]Flexibility, Winter'!K3*Scenarios!$B$7</f>
-        <v>58.565999999999995</v>
+        <v>64.60499999999999</v>
       </c>
       <c r="L3" s="2">
         <f>'[2]Flexibility, Winter'!L3*Scenarios!$B$7</f>
-        <v>56.88</v>
+        <v>63.360000000000014</v>
       </c>
       <c r="M3" s="2">
         <f>'[2]Flexibility, Winter'!M3*Scenarios!$B$7</f>
-        <v>55.709999999999994</v>
+        <v>63.050999999999995</v>
       </c>
       <c r="N3" s="2">
         <f>'[2]Flexibility, Winter'!N3*Scenarios!$B$7</f>
-        <v>54.005999999999993</v>
+        <v>60.608999999999988</v>
       </c>
       <c r="O3" s="2">
         <f>'[2]Flexibility, Winter'!O3*Scenarios!$B$7</f>
-        <v>53.436</v>
+        <v>59.753999999999991</v>
       </c>
       <c r="P3" s="2">
         <f>'[2]Flexibility, Winter'!P3*Scenarios!$B$7</f>
-        <v>51.054000000000002</v>
+        <v>58.581000000000003</v>
       </c>
       <c r="Q3" s="2">
         <f>'[2]Flexibility, Winter'!Q3*Scenarios!$B$7</f>
-        <v>50.652000000000001</v>
+        <v>58.697999999999993</v>
       </c>
       <c r="R3" s="2">
         <f>'[2]Flexibility, Winter'!R3*Scenarios!$B$7</f>
-        <v>51.695999999999998</v>
+        <v>59.603999999999992</v>
       </c>
       <c r="S3" s="2">
         <f>'[2]Flexibility, Winter'!S3*Scenarios!$B$7</f>
-        <v>57</v>
+        <v>62.55</v>
       </c>
       <c r="T3" s="2">
         <f>'[2]Flexibility, Winter'!T3*Scenarios!$B$7</f>
-        <v>59.676000000000002</v>
+        <v>65.543999999999997</v>
       </c>
       <c r="U3" s="2">
         <f>'[2]Flexibility, Winter'!U3*Scenarios!$B$7</f>
-        <v>60.612000000000002</v>
+        <v>66.048000000000002</v>
       </c>
       <c r="V3" s="2">
         <f>'[2]Flexibility, Winter'!V3*Scenarios!$B$7</f>
-        <v>60.947999999999993</v>
+        <v>64.524000000000001</v>
       </c>
       <c r="W3" s="2">
         <f>'[2]Flexibility, Winter'!W3*Scenarios!$B$7</f>
-        <v>58.24199999999999</v>
+        <v>60.471000000000004</v>
       </c>
       <c r="X3" s="2">
         <f>'[2]Flexibility, Winter'!X3*Scenarios!$B$7</f>
-        <v>52.745999999999995</v>
+        <v>54.578999999999994</v>
       </c>
       <c r="Y3" s="2">
         <f>'[2]Flexibility, Winter'!Y3*Scenarios!$B$7</f>
-        <v>50.052</v>
+        <v>51.227999999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[2]Flexibility, Winter'!B4*Scenarios!$B$7</f>
-        <v>55.92</v>
+        <v>52.451999999999998</v>
       </c>
       <c r="C4" s="2">
         <f>'[2]Flexibility, Winter'!C4*Scenarios!$B$7</f>
-        <v>51.647999999999996</v>
+        <v>48.941999999999993</v>
       </c>
       <c r="D4" s="2">
         <f>'[2]Flexibility, Winter'!D4*Scenarios!$B$7</f>
-        <v>50.484000000000002</v>
+        <v>46.863</v>
       </c>
       <c r="E4" s="2">
         <f>'[2]Flexibility, Winter'!E4*Scenarios!$B$7</f>
-        <v>46.583999999999996</v>
+        <v>43.947000000000003</v>
       </c>
       <c r="F4" s="2">
         <f>'[2]Flexibility, Winter'!F4*Scenarios!$B$7</f>
-        <v>46.908000000000001</v>
+        <v>45.258000000000003</v>
       </c>
       <c r="G4" s="2">
         <f>'[2]Flexibility, Winter'!G4*Scenarios!$B$7</f>
-        <v>51.851999999999997</v>
+        <v>48.894000000000005</v>
       </c>
       <c r="H4" s="2">
         <f>'[2]Flexibility, Winter'!H4*Scenarios!$B$7</f>
-        <v>65.268000000000001</v>
+        <v>59.153999999999989</v>
       </c>
       <c r="I4" s="2">
         <f>'[2]Flexibility, Winter'!I4*Scenarios!$B$7</f>
-        <v>68.411999999999992</v>
+        <v>61.908000000000001</v>
       </c>
       <c r="J4" s="2">
         <f>'[2]Flexibility, Winter'!J4*Scenarios!$B$7</f>
-        <v>72.024000000000001</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="K4" s="2">
         <f>'[2]Flexibility, Winter'!K4*Scenarios!$B$7</f>
-        <v>70.643999999999991</v>
+        <v>64.60499999999999</v>
       </c>
       <c r="L4" s="2">
         <f>'[2]Flexibility, Winter'!L4*Scenarios!$B$7</f>
-        <v>69.84</v>
+        <v>63.360000000000014</v>
       </c>
       <c r="M4" s="2">
         <f>'[2]Flexibility, Winter'!M4*Scenarios!$B$7</f>
-        <v>70.391999999999996</v>
+        <v>63.050999999999995</v>
       </c>
       <c r="N4" s="2">
         <f>'[2]Flexibility, Winter'!N4*Scenarios!$B$7</f>
-        <v>67.211999999999989</v>
+        <v>60.608999999999988</v>
       </c>
       <c r="O4" s="2">
         <f>'[2]Flexibility, Winter'!O4*Scenarios!$B$7</f>
-        <v>66.072000000000003</v>
+        <v>59.753999999999991</v>
       </c>
       <c r="P4" s="2">
         <f>'[2]Flexibility, Winter'!P4*Scenarios!$B$7</f>
-        <v>66.108000000000004</v>
+        <v>58.581000000000003</v>
       </c>
       <c r="Q4" s="2">
         <f>'[2]Flexibility, Winter'!Q4*Scenarios!$B$7</f>
-        <v>66.744</v>
+        <v>58.697999999999993</v>
       </c>
       <c r="R4" s="2">
         <f>'[2]Flexibility, Winter'!R4*Scenarios!$B$7</f>
-        <v>67.512</v>
+        <v>59.603999999999992</v>
       </c>
       <c r="S4" s="2">
         <f>'[2]Flexibility, Winter'!S4*Scenarios!$B$7</f>
-        <v>68.099999999999994</v>
+        <v>62.55</v>
       </c>
       <c r="T4" s="2">
         <f>'[2]Flexibility, Winter'!T4*Scenarios!$B$7</f>
-        <v>71.411999999999992</v>
+        <v>65.543999999999997</v>
       </c>
       <c r="U4" s="2">
         <f>'[2]Flexibility, Winter'!U4*Scenarios!$B$7</f>
-        <v>71.483999999999995</v>
+        <v>66.048000000000002</v>
       </c>
       <c r="V4" s="2">
         <f>'[2]Flexibility, Winter'!V4*Scenarios!$B$7</f>
-        <v>68.099999999999994</v>
+        <v>64.524000000000001</v>
       </c>
       <c r="W4" s="2">
         <f>'[2]Flexibility, Winter'!W4*Scenarios!$B$7</f>
-        <v>62.699999999999996</v>
+        <v>60.471000000000004</v>
       </c>
       <c r="X4" s="2">
         <f>'[2]Flexibility, Winter'!X4*Scenarios!$B$7</f>
-        <v>56.411999999999999</v>
+        <v>54.578999999999994</v>
       </c>
       <c r="Y4" s="2">
         <f>'[2]Flexibility, Winter'!Y4*Scenarios!$B$7</f>
-        <v>52.404000000000003</v>
+        <v>51.227999999999994</v>
       </c>
     </row>
   </sheetData>
@@ -4584,9 +4584,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>14.23521</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>18.257999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -4992,7 +4992,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -5018,7 +5018,7 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -5057,9 +5057,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>47.88</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -5465,7 +5465,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -5504,9 +5504,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>30.75</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>31.75</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -5912,7 +5912,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -5951,9 +5951,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>38.14</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -6359,7 +6359,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -6395,13 +6395,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D41C535-3839-4DDB-BB1F-A20EDF01545A}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -6478,307 +6478,307 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <f>'[2]Flexibility, Summer'!B2*Scenarios!$B$7</f>
-        <v>44.724000000000004</v>
+        <v>44.136000000000003</v>
       </c>
       <c r="C2" s="2">
         <f>'[2]Flexibility, Summer'!C2*Scenarios!$B$7</f>
-        <v>40.811999999999998</v>
+        <v>39.931999999999995</v>
       </c>
       <c r="D2" s="2">
         <f>'[2]Flexibility, Summer'!D2*Scenarios!$B$7</f>
-        <v>39.083999999999996</v>
+        <v>39.864000000000004</v>
       </c>
       <c r="E2" s="2">
         <f>'[2]Flexibility, Summer'!E2*Scenarios!$B$7</f>
-        <v>38.375999999999998</v>
+        <v>38.923999999999999</v>
       </c>
       <c r="F2" s="2">
         <f>'[2]Flexibility, Summer'!F2*Scenarios!$B$7</f>
-        <v>38.556000000000004</v>
+        <v>39.660000000000004</v>
       </c>
       <c r="G2" s="2">
         <f>'[2]Flexibility, Summer'!G2*Scenarios!$B$7</f>
-        <v>43.643999999999998</v>
+        <v>43.583999999999996</v>
       </c>
       <c r="H2" s="2">
         <f>'[2]Flexibility, Summer'!H2*Scenarios!$B$7</f>
-        <v>45.491999999999997</v>
+        <v>48.144000000000005</v>
       </c>
       <c r="I2" s="2">
         <f>'[2]Flexibility, Summer'!I2*Scenarios!$B$7</f>
-        <v>45.491999999999997</v>
+        <v>48.403999999999996</v>
       </c>
       <c r="J2" s="2">
         <f>'[2]Flexibility, Summer'!J2*Scenarios!$B$7</f>
-        <v>47.808</v>
+        <v>51.024000000000001</v>
       </c>
       <c r="K2" s="2">
         <f>'[2]Flexibility, Summer'!K2*Scenarios!$B$7</f>
-        <v>47.927999999999997</v>
+        <v>50.907999999999994</v>
       </c>
       <c r="L2" s="2">
         <f>'[2]Flexibility, Summer'!L2*Scenarios!$B$7</f>
-        <v>47.808</v>
+        <v>49.74</v>
       </c>
       <c r="M2" s="2">
         <f>'[2]Flexibility, Summer'!M2*Scenarios!$B$7</f>
-        <v>48.011999999999993</v>
+        <v>49.672000000000004</v>
       </c>
       <c r="N2" s="2">
         <f>'[2]Flexibility, Summer'!N2*Scenarios!$B$7</f>
-        <v>47.327999999999996</v>
+        <v>51.436</v>
       </c>
       <c r="O2" s="2">
         <f>'[2]Flexibility, Summer'!O2*Scenarios!$B$7</f>
-        <v>47.027999999999999</v>
+        <v>52.203999999999994</v>
       </c>
       <c r="P2" s="2">
         <f>'[2]Flexibility, Summer'!P2*Scenarios!$B$7</f>
-        <v>46.043999999999997</v>
+        <v>51.05599999999999</v>
       </c>
       <c r="Q2" s="2">
         <f>'[2]Flexibility, Summer'!Q2*Scenarios!$B$7</f>
-        <v>44.627999999999993</v>
+        <v>49.819999999999986</v>
       </c>
       <c r="R2" s="2">
         <f>'[2]Flexibility, Summer'!R2*Scenarios!$B$7</f>
-        <v>41.975999999999992</v>
+        <v>48.875999999999998</v>
       </c>
       <c r="S2" s="2">
         <f>'[2]Flexibility, Summer'!S2*Scenarios!$B$7</f>
-        <v>44.843999999999994</v>
+        <v>50.391999999999996</v>
       </c>
       <c r="T2" s="2">
         <f>'[2]Flexibility, Summer'!T2*Scenarios!$B$7</f>
-        <v>46.559999999999995</v>
+        <v>51.579999999999991</v>
       </c>
       <c r="U2" s="2">
         <f>'[2]Flexibility, Summer'!U2*Scenarios!$B$7</f>
-        <v>47.879999999999995</v>
+        <v>53.071999999999996</v>
       </c>
       <c r="V2" s="2">
         <f>'[2]Flexibility, Summer'!V2*Scenarios!$B$7</f>
-        <v>46.847999999999999</v>
+        <v>54.268000000000001</v>
       </c>
       <c r="W2" s="2">
         <f>'[2]Flexibility, Summer'!W2*Scenarios!$B$7</f>
-        <v>47.808</v>
+        <v>56.671999999999997</v>
       </c>
       <c r="X2" s="2">
         <f>'[2]Flexibility, Summer'!X2*Scenarios!$B$7</f>
-        <v>47.711999999999996</v>
+        <v>54.199999999999996</v>
       </c>
       <c r="Y2" s="2">
         <f>'[2]Flexibility, Summer'!Y2*Scenarios!$B$7</f>
-        <v>45.768000000000001</v>
+        <v>50.256</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <f>'[2]Flexibility, Summer'!B3*Scenarios!$B$7</f>
-        <v>47.616</v>
+        <v>44.136000000000003</v>
       </c>
       <c r="C3" s="2">
         <f>'[2]Flexibility, Summer'!C3*Scenarios!$B$7</f>
-        <v>42</v>
+        <v>39.931999999999995</v>
       </c>
       <c r="D3" s="2">
         <f>'[2]Flexibility, Summer'!D3*Scenarios!$B$7</f>
-        <v>45.84</v>
+        <v>39.864000000000004</v>
       </c>
       <c r="E3" s="2">
         <f>'[2]Flexibility, Summer'!E3*Scenarios!$B$7</f>
-        <v>44.279999999999994</v>
+        <v>38.923999999999999</v>
       </c>
       <c r="F3" s="2">
         <f>'[2]Flexibility, Summer'!F3*Scenarios!$B$7</f>
-        <v>45.131999999999998</v>
+        <v>39.660000000000004</v>
       </c>
       <c r="G3" s="2">
         <f>'[2]Flexibility, Summer'!G3*Scenarios!$B$7</f>
-        <v>45.84</v>
+        <v>43.583999999999996</v>
       </c>
       <c r="H3" s="2">
         <f>'[2]Flexibility, Summer'!H3*Scenarios!$B$7</f>
-        <v>44.652000000000001</v>
+        <v>48.144000000000005</v>
       </c>
       <c r="I3" s="2">
         <f>'[2]Flexibility, Summer'!I3*Scenarios!$B$7</f>
-        <v>48.216000000000001</v>
+        <v>48.403999999999996</v>
       </c>
       <c r="J3" s="2">
         <f>'[2]Flexibility, Summer'!J3*Scenarios!$B$7</f>
-        <v>51.408000000000001</v>
+        <v>51.024000000000001</v>
       </c>
       <c r="K3" s="2">
         <f>'[2]Flexibility, Summer'!K3*Scenarios!$B$7</f>
-        <v>51.636000000000003</v>
+        <v>50.907999999999994</v>
       </c>
       <c r="L3" s="2">
         <f>'[2]Flexibility, Summer'!L3*Scenarios!$B$7</f>
-        <v>52.14</v>
+        <v>49.74</v>
       </c>
       <c r="M3" s="2">
         <f>'[2]Flexibility, Summer'!M3*Scenarios!$B$7</f>
-        <v>53.124000000000002</v>
+        <v>49.672000000000004</v>
       </c>
       <c r="N3" s="2">
         <f>'[2]Flexibility, Summer'!N3*Scenarios!$B$7</f>
-        <v>53.963999999999999</v>
+        <v>51.436</v>
       </c>
       <c r="O3" s="2">
         <f>'[2]Flexibility, Summer'!O3*Scenarios!$B$7</f>
-        <v>55.368000000000002</v>
+        <v>52.203999999999994</v>
       </c>
       <c r="P3" s="2">
         <f>'[2]Flexibility, Summer'!P3*Scenarios!$B$7</f>
-        <v>53.268000000000001</v>
+        <v>51.05599999999999</v>
       </c>
       <c r="Q3" s="2">
         <f>'[2]Flexibility, Summer'!Q3*Scenarios!$B$7</f>
-        <v>51.611999999999995</v>
+        <v>49.819999999999986</v>
       </c>
       <c r="R3" s="2">
         <f>'[2]Flexibility, Summer'!R3*Scenarios!$B$7</f>
-        <v>51.431999999999995</v>
+        <v>48.875999999999998</v>
       </c>
       <c r="S3" s="2">
         <f>'[2]Flexibility, Summer'!S3*Scenarios!$B$7</f>
-        <v>52.475999999999992</v>
+        <v>50.391999999999996</v>
       </c>
       <c r="T3" s="2">
         <f>'[2]Flexibility, Summer'!T3*Scenarios!$B$7</f>
-        <v>52.763999999999996</v>
+        <v>51.579999999999991</v>
       </c>
       <c r="U3" s="2">
         <f>'[2]Flexibility, Summer'!U3*Scenarios!$B$7</f>
-        <v>53.879999999999995</v>
+        <v>53.071999999999996</v>
       </c>
       <c r="V3" s="2">
         <f>'[2]Flexibility, Summer'!V3*Scenarios!$B$7</f>
-        <v>54.54</v>
+        <v>54.268000000000001</v>
       </c>
       <c r="W3" s="2">
         <f>'[2]Flexibility, Summer'!W3*Scenarios!$B$7</f>
-        <v>55.379999999999995</v>
+        <v>56.671999999999997</v>
       </c>
       <c r="X3" s="2">
         <f>'[2]Flexibility, Summer'!X3*Scenarios!$B$7</f>
-        <v>53.963999999999999</v>
+        <v>54.199999999999996</v>
       </c>
       <c r="Y3" s="2">
         <f>'[2]Flexibility, Summer'!Y3*Scenarios!$B$7</f>
-        <v>51</v>
+        <v>50.256</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>'[2]Flexibility, Summer'!B4*Scenarios!$B$7</f>
-        <v>40.067999999999998</v>
+        <v>44.136000000000003</v>
       </c>
       <c r="C4" s="2">
         <f>'[2]Flexibility, Summer'!C4*Scenarios!$B$7</f>
-        <v>36.984000000000002</v>
+        <v>39.931999999999995</v>
       </c>
       <c r="D4" s="2">
         <f>'[2]Flexibility, Summer'!D4*Scenarios!$B$7</f>
-        <v>34.667999999999999</v>
+        <v>39.864000000000004</v>
       </c>
       <c r="E4" s="2">
         <f>'[2]Flexibility, Summer'!E4*Scenarios!$B$7</f>
-        <v>34.116</v>
+        <v>38.923999999999999</v>
       </c>
       <c r="F4" s="2">
         <f>'[2]Flexibility, Summer'!F4*Scenarios!$B$7</f>
-        <v>35.292000000000002</v>
+        <v>39.660000000000004</v>
       </c>
       <c r="G4" s="2">
         <f>'[2]Flexibility, Summer'!G4*Scenarios!$B$7</f>
-        <v>41.268000000000001</v>
+        <v>43.583999999999996</v>
       </c>
       <c r="H4" s="2">
         <f>'[2]Flexibility, Summer'!H4*Scenarios!$B$7</f>
-        <v>54.288000000000004</v>
+        <v>48.144000000000005</v>
       </c>
       <c r="I4" s="2">
         <f>'[2]Flexibility, Summer'!I4*Scenarios!$B$7</f>
-        <v>51.503999999999998</v>
+        <v>48.403999999999996</v>
       </c>
       <c r="J4" s="2">
         <f>'[2]Flexibility, Summer'!J4*Scenarios!$B$7</f>
-        <v>53.856000000000002</v>
+        <v>51.024000000000001</v>
       </c>
       <c r="K4" s="2">
         <f>'[2]Flexibility, Summer'!K4*Scenarios!$B$7</f>
-        <v>53.16</v>
+        <v>50.907999999999994</v>
       </c>
       <c r="L4" s="2">
         <f>'[2]Flexibility, Summer'!L4*Scenarios!$B$7</f>
-        <v>49.271999999999998</v>
+        <v>49.74</v>
       </c>
       <c r="M4" s="2">
         <f>'[2]Flexibility, Summer'!M4*Scenarios!$B$7</f>
-        <v>47.879999999999995</v>
+        <v>49.672000000000004</v>
       </c>
       <c r="N4" s="2">
         <f>'[2]Flexibility, Summer'!N4*Scenarios!$B$7</f>
-        <v>53.015999999999998</v>
+        <v>51.436</v>
       </c>
       <c r="O4" s="2">
         <f>'[2]Flexibility, Summer'!O4*Scenarios!$B$7</f>
-        <v>54.216000000000001</v>
+        <v>52.203999999999994</v>
       </c>
       <c r="P4" s="2">
         <f>'[2]Flexibility, Summer'!P4*Scenarios!$B$7</f>
-        <v>53.856000000000002</v>
+        <v>51.05599999999999</v>
       </c>
       <c r="Q4" s="2">
         <f>'[2]Flexibility, Summer'!Q4*Scenarios!$B$7</f>
-        <v>53.22</v>
+        <v>49.819999999999986</v>
       </c>
       <c r="R4" s="2">
         <f>'[2]Flexibility, Summer'!R4*Scenarios!$B$7</f>
-        <v>53.22</v>
+        <v>48.875999999999998</v>
       </c>
       <c r="S4" s="2">
         <f>'[2]Flexibility, Summer'!S4*Scenarios!$B$7</f>
-        <v>53.856000000000002</v>
+        <v>50.391999999999996</v>
       </c>
       <c r="T4" s="2">
         <f>'[2]Flexibility, Summer'!T4*Scenarios!$B$7</f>
-        <v>55.415999999999997</v>
+        <v>51.579999999999991</v>
       </c>
       <c r="U4" s="2">
         <f>'[2]Flexibility, Summer'!U4*Scenarios!$B$7</f>
-        <v>57.456000000000003</v>
+        <v>53.071999999999996</v>
       </c>
       <c r="V4" s="2">
         <f>'[2]Flexibility, Summer'!V4*Scenarios!$B$7</f>
-        <v>61.415999999999997</v>
+        <v>54.268000000000001</v>
       </c>
       <c r="W4" s="2">
         <f>'[2]Flexibility, Summer'!W4*Scenarios!$B$7</f>
-        <v>66.827999999999989</v>
+        <v>56.671999999999997</v>
       </c>
       <c r="X4" s="2">
         <f>'[2]Flexibility, Summer'!X4*Scenarios!$B$7</f>
-        <v>60.923999999999999</v>
+        <v>54.199999999999996</v>
       </c>
       <c r="Y4" s="2">
         <f>'[2]Flexibility, Summer'!Y4*Scenarios!$B$7</f>
-        <v>54</v>
+        <v>50.256</v>
       </c>
     </row>
   </sheetData>
@@ -6794,9 +6794,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>6.9015499999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>6.83</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -7202,7 +7202,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -7228,7 +7228,7 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
